--- a/BalanceSheet/MMM_bal.xlsx
+++ b/BalanceSheet/MMM_bal.xlsx
@@ -4415,7 +4415,7 @@
         <v>18865000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>18378000000.0</v>
+        <v>17862000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>11678000000.0</v>
@@ -4542,7 +4542,7 @@
         <v>23342000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>21299000000.0</v>
+        <v>20313000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>19439000000.0</v>
